--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,32 +702,83 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
+      <c r="A10" s="9">
+        <v>43948</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>11396</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>139</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="5">PRODUCT(D10,E10)</f>
+        <v>624.11</v>
       </c>
       <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>4276.63</v>
+        <f>SUM(F10,F11)</f>
+        <v>733.46</v>
       </c>
       <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>4276.63</v>
+        <v>733.46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3825</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="5"/>
+        <v>109.35000000000001</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>5010.09</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>5010.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -753,32 +753,83 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="12" t="s">
-        <v>10</v>
+      <c r="A12" s="9">
+        <v>43978</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11536</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
+        <v>140</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="7">PRODUCT(D12,E12)</f>
+        <v>628.6</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>5010.09</v>
+        <f>SUM(F12,F13)</f>
+        <v>750.1</v>
       </c>
       <c r="H12" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>5010.09</v>
+        <v>750.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3875</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="7"/>
+        <v>121.50000000000001</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(G2:G13)</f>
+        <v>5760.1900000000005</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H2:H13)</f>
+        <v>5760.1900000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,7 +471,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -804,32 +804,83 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="12" t="s">
+      <c r="A14" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>11665</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
+        <v>129</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="9">PRODUCT(D14,E14)</f>
+        <v>579.21</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>615.66000000000008</v>
+      </c>
+      <c r="H14" s="11">
+        <v>615.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3890</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="9"/>
+        <v>36.450000000000003</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G16" s="11">
         <f>SUM(G2:G13)</f>
         <v>5760.1900000000005</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H16" s="11">
         <f>SUM(H2:H13)</f>
         <v>5760.1900000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="7">PRODUCT(D12,E12)</f>
+        <f t="shared" ref="F12:F15" si="7">PRODUCT(D12,E12)</f>
         <v>628.6</v>
       </c>
       <c r="G12" s="11">
@@ -814,22 +814,22 @@
         <v>11665</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
-        <v>129</v>
+        <f>SUM(C14,-C10)</f>
+        <v>269</v>
       </c>
       <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="9">PRODUCT(D14,E14)</f>
-        <v>579.21</v>
+        <f t="shared" si="7"/>
+        <v>1207.81</v>
       </c>
       <c r="G14" s="11">
         <f>SUM(F14,F15)</f>
-        <v>615.66000000000008</v>
+        <v>1365.76</v>
       </c>
       <c r="H14" s="11">
-        <v>615.66</v>
+        <v>1365.76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,46 +841,97 @@
         <v>3890</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f>SUM(C15,-C11)</f>
+        <v>65</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="9"/>
-        <v>36.450000000000003</v>
+        <f t="shared" si="7"/>
+        <v>157.95000000000002</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="12" t="s">
-        <v>10</v>
+      <c r="A16" s="9">
+        <v>44047</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>11740</v>
+      </c>
+      <c r="D16" s="6">
+        <f>SUM(C16,-C14)</f>
+        <v>75</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="8">PRODUCT(D16,E16)</f>
+        <v>353.25</v>
       </c>
       <c r="G16" s="11">
-        <f>SUM(G2:G13)</f>
-        <v>5760.1900000000005</v>
+        <f>SUM(F16,F17)</f>
+        <v>417</v>
       </c>
       <c r="H16" s="11">
-        <f>SUM(H2:H13)</f>
-        <v>5760.1900000000005</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3915</v>
+      </c>
+      <c r="D17" s="6">
+        <f>SUM(C17,-C15)</f>
+        <v>25</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="8"/>
+        <v>63.749999999999993</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>7542.9500000000007</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>7542.9500000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,32 +906,134 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="12" t="s">
-        <v>10</v>
+      <c r="A18" s="9">
+        <v>44081</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>11910</v>
+      </c>
+      <c r="D18" s="6">
+        <f>SUM(C18,-C16)</f>
+        <v>170</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="9">PRODUCT(D18,E18)</f>
+        <v>800.7</v>
       </c>
       <c r="G18" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>7542.9500000000007</v>
+        <f>SUM(F18,F19)</f>
+        <v>889.95</v>
       </c>
       <c r="H18" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>7542.9500000000007</v>
+        <v>889.95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3950</v>
+      </c>
+      <c r="D19" s="6">
+        <f>SUM(C19,-C17)</f>
+        <v>35</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="9"/>
+        <v>89.25</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44102</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12085</v>
+      </c>
+      <c r="D20" s="6">
+        <f>SUM(C20,-C18)</f>
+        <v>175</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="10">PRODUCT(D20,E20)</f>
+        <v>824.25</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>913.5</v>
+      </c>
+      <c r="H20" s="11">
+        <v>913.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3985</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(C21,-C19)</f>
+        <v>35</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="10"/>
+        <v>89.25</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>9346.4000000000015</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>9346.4000000000015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -865,14 +865,14 @@
         <v>11740</v>
       </c>
       <c r="D16" s="6">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" ref="D16:D23" si="8">SUM(C16,-C14)</f>
         <v>75</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="8">PRODUCT(D16,E16)</f>
+        <f t="shared" ref="F16:F17" si="9">PRODUCT(D16,E16)</f>
         <v>353.25</v>
       </c>
       <c r="G16" s="11">
@@ -892,14 +892,14 @@
         <v>3915</v>
       </c>
       <c r="D17" s="6">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.749999999999993</v>
       </c>
       <c r="G17" s="11"/>
@@ -916,14 +916,14 @@
         <v>11910</v>
       </c>
       <c r="D18" s="6">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="E18" s="7">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="9">PRODUCT(D18,E18)</f>
+        <f t="shared" ref="F18:F19" si="10">PRODUCT(D18,E18)</f>
         <v>800.7</v>
       </c>
       <c r="G18" s="11">
@@ -943,14 +943,14 @@
         <v>3950</v>
       </c>
       <c r="D19" s="6">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>89.25</v>
       </c>
       <c r="G19" s="11"/>
@@ -967,14 +967,14 @@
         <v>12085</v>
       </c>
       <c r="D20" s="6">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="E20" s="7">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="10">PRODUCT(D20,E20)</f>
+        <f t="shared" ref="F20:F21" si="11">PRODUCT(D20,E20)</f>
         <v>824.25</v>
       </c>
       <c r="G20" s="11">
@@ -994,46 +994,97 @@
         <v>3985</v>
       </c>
       <c r="D21" s="6">
-        <f>SUM(C21,-C19)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>89.25</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="12" t="s">
+      <c r="A22" s="9">
+        <v>44130</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12170</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="12">PRODUCT(D22,E22)</f>
+        <v>400.35</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>476.85</v>
+      </c>
+      <c r="H22" s="11">
+        <v>476.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4015</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="12"/>
+        <v>76.5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G24" s="11">
         <f>SUM(G2:G21)</f>
         <v>9346.4000000000015</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H21)</f>
         <v>9346.4000000000015</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,63 +518,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>43829</v>
+        <v>44081</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>10475</v>
+        <v>11910</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>3465</v>
+        <v>3950</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>43857</v>
+        <v>44102</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>10705</v>
+        <v>12085</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(C4,-C2)</f>
-        <v>230</v>
+        <f t="shared" ref="D4:D7" si="0">SUM(C4,-C2)</f>
+        <v>175</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="0">PRODUCT(D4,E4)</f>
-        <v>1032.7</v>
+        <f t="shared" ref="F4:F5" si="1">PRODUCT(D4,E4)</f>
+        <v>824.25</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>1275.7</v>
+        <v>913.5</v>
       </c>
       <c r="H4" s="11">
-        <v>1275.7</v>
+        <v>913.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -583,49 +583,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3565</v>
+        <v>3985</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="1"/>
+        <v>89.25</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>43892</v>
+        <v>44130</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>11005</v>
+        <v>12170</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
       <c r="E6" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>1347</v>
+        <f t="shared" ref="F6:F7" si="2">PRODUCT(D6,E6)</f>
+        <v>400.35</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>1638.6</v>
+        <v>476.85</v>
       </c>
       <c r="H6" s="11">
-        <v>1638.6</v>
+        <v>476.85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,49 +634,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>3685</v>
+        <v>4015</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>291.60000000000002</v>
+        <f t="shared" si="2"/>
+        <v>76.5</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>43921</v>
+        <v>44165</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>11257</v>
+        <v>12490</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>252</v>
+        <f t="shared" ref="D8:D9" si="3">SUM(C8,-C6)</f>
+        <v>320</v>
       </c>
       <c r="E8" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="3">PRODUCT(D8,E8)</f>
-        <v>1131.48</v>
+        <f t="shared" ref="F8:F9" si="4">PRODUCT(D8,E8)</f>
+        <v>1507.2</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>1362.33</v>
+        <v>1762.2</v>
       </c>
       <c r="H8" s="11">
-        <v>1362.33</v>
+        <v>1762.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,411 +685,54 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>3780</v>
+        <v>4115</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>230.85000000000002</v>
+        <f t="shared" si="4"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>43948</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>11396</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
-        <v>139</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="5">PRODUCT(D10,E10)</f>
-        <v>624.11</v>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="11">
-        <f>SUM(F10,F11)</f>
-        <v>733.46</v>
+        <f>SUM(G2:G9)</f>
+        <v>3152.55</v>
       </c>
       <c r="H10" s="11">
-        <v>733.46</v>
+        <f>SUM(H2:H9)</f>
+        <v>3152.55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3825</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="5"/>
-        <v>109.35000000000001</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>43978</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>11536</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
-        <v>140</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F15" si="7">PRODUCT(D12,E12)</f>
-        <v>628.6</v>
-      </c>
-      <c r="G12" s="11">
-        <f>SUM(F12,F13)</f>
-        <v>750.1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>750.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3875</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>44012</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>11665</v>
-      </c>
-      <c r="D14" s="6">
-        <f>SUM(C14,-C10)</f>
-        <v>269</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="7"/>
-        <v>1207.81</v>
-      </c>
-      <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>1365.76</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1365.76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3890</v>
-      </c>
-      <c r="D15" s="6">
-        <f>SUM(C15,-C11)</f>
-        <v>65</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="7"/>
-        <v>157.95000000000002</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>44047</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>11740</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:D23" si="8">SUM(C16,-C14)</f>
-        <v>75</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="9">PRODUCT(D16,E16)</f>
-        <v>353.25</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>417</v>
-      </c>
-      <c r="H16" s="11">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3915</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="9"/>
-        <v>63.749999999999993</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>44081</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>11910</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="8"/>
-        <v>170</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="10">PRODUCT(D18,E18)</f>
-        <v>800.7</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>889.95</v>
-      </c>
-      <c r="H18" s="11">
-        <v>889.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3950</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="10"/>
-        <v>89.25</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>44102</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>12085</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="8"/>
-        <v>175</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="11">PRODUCT(D20,E20)</f>
-        <v>824.25</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>913.5</v>
-      </c>
-      <c r="H20" s="11">
-        <v>913.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3985</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="11"/>
-        <v>89.25</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>44130</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>12170</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="12">PRODUCT(D22,E22)</f>
-        <v>400.35</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(F22,F23)</f>
-        <v>476.85</v>
-      </c>
-      <c r="H22" s="11">
-        <v>476.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4015</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="12"/>
-        <v>76.5</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11">
-        <f>SUM(G2:G21)</f>
-        <v>9346.4000000000015</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H21)</f>
-        <v>9346.4000000000015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,32 +702,83 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
+      <c r="A10" s="9">
+        <v>44194</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12780</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D11" si="5">SUM(C10,-C8)</f>
+        <v>290</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="6">PRODUCT(D10,E10)</f>
+        <v>1365.9</v>
       </c>
       <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>3152.55</v>
+        <f>SUM(F10,F11)</f>
+        <v>1582.65</v>
       </c>
       <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>3152.55</v>
+        <v>1582.65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4200</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>216.74999999999997</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>4735.2000000000007</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>4735.2000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -753,32 +753,236 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="12" t="s">
-        <v>10</v>
+      <c r="A12" s="9">
+        <v>44228</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>13030</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D13" si="7">SUM(C12,-C10)</f>
+        <v>250</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="8">PRODUCT(D12,E12)</f>
+        <v>1177.5</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>4735.2000000000007</v>
+        <f>SUM(F12,F13)</f>
+        <v>1381.5</v>
       </c>
       <c r="H12" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>4735.2000000000007</v>
+        <v>1381.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4280</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44251</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13220</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="9">SUM(C14,-C12)</f>
+        <v>190</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="10">PRODUCT(D14,E14)</f>
+        <v>894.9</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>1175.4000000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1175.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4390</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="10"/>
+        <v>280.5</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>44286</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>13318</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D17" si="11">SUM(C16,-C14)</f>
+        <v>98</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="12">PRODUCT(D16,E16)</f>
+        <v>461.58</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>563.57999999999993</v>
+      </c>
+      <c r="H16" s="11">
+        <v>563.58000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4430</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="12"/>
+        <v>102</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44313</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>13398</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D19" si="13">SUM(C18,-C16)</f>
+        <v>80</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="14">PRODUCT(D18,E18)</f>
+        <v>376.8</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>453.3</v>
+      </c>
+      <c r="H18" s="11">
+        <v>453.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4460</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="14"/>
+        <v>76.5</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>8308.98</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>8309.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -957,32 +957,83 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="12" t="s">
+      <c r="A20" s="9">
+        <v>44347</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>13418</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D21" si="15">SUM(C20,-C18)</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="16">PRODUCT(D20,E20)</f>
+        <v>94.2</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>106.95</v>
+      </c>
+      <c r="H20" s="11">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4465</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="16"/>
+        <v>12.75</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <f>SUM(G2:G19)</f>
         <v>8308.98</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H22" s="11">
         <f>SUM(H2:H19)</f>
         <v>8309.08</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,32 +1008,83 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="12" t="s">
+      <c r="A22" s="9">
+        <v>44375</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>13530</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:D23" si="17">SUM(C22,-C20)</f>
+        <v>112</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="18">PRODUCT(D22,E22)</f>
+        <v>527.52</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>558.12</v>
+      </c>
+      <c r="H22" s="11">
+        <v>558.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4477</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="18"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G24" s="11">
         <f>SUM(G2:G19)</f>
         <v>8308.98</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H19)</f>
         <v>8309.08</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,32 +1059,134 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="12" t="s">
-        <v>10</v>
+      <c r="A24" s="9">
+        <v>44410</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>13656</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:D25" si="19">SUM(C24,-C22)</f>
+        <v>126</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="20">PRODUCT(D24,E24)</f>
+        <v>624.96</v>
       </c>
       <c r="G24" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>8308.98</v>
+        <f>SUM(F24,F25)</f>
+        <v>729.48</v>
       </c>
       <c r="H24" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>8309.08</v>
+        <v>729.48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4516</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="20"/>
+        <v>104.52000000000001</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>44435</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>13735</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:D27" si="21">SUM(C26,-C24)</f>
+        <v>79</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="22">PRODUCT(D26,E26)</f>
+        <v>391.84</v>
+      </c>
+      <c r="G26" s="11">
+        <f>SUM(F26,F27)</f>
+        <v>442.76</v>
+      </c>
+      <c r="H26" s="11">
+        <v>442.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4535</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="22"/>
+        <v>50.92</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(G2:G27)</f>
+        <v>10146.290000000001</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUM(H2:H27)</f>
+        <v>10146.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -471,7 +471,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
@@ -1161,32 +1161,83 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="12" t="s">
+      <c r="A28" s="9">
+        <v>44467</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>13835</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28:D29" si="23">SUM(C28,-C26)</f>
+        <v>100</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="24">PRODUCT(D28,E28)</f>
+        <v>496</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(F28,F29)</f>
+        <v>576.4</v>
+      </c>
+      <c r="H28" s="11">
+        <v>576.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="23"/>
+        <v>30</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="24"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <f>SUM(G2:G27)</f>
         <v>10146.290000000001</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H30" s="11">
         <f>SUM(H2:H27)</f>
         <v>10146.34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/68ee.xlsx
+++ b/sputnik/personal/ee/68ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -88,7 +88,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -171,6 +177,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -478,10 +485,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -527,31 +534,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>44501</v>
+        <v>44529</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>13920</v>
+        <v>14080</v>
       </c>
       <c r="D2" s="6">
         <f>SUM(C2,-C4)</f>
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F5" si="0">PRODUCT(D2,E2)</f>
-        <v>421.6</v>
+        <f t="shared" ref="F2:F3" si="0">PRODUCT(D2,E2)</f>
+        <v>793.6</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>488.6</v>
+        <v>967.80000000000007</v>
       </c>
       <c r="H2" s="11">
-        <v>488.6</v>
+        <v>967.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -560,49 +567,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>4590</v>
+        <v>4655</v>
       </c>
       <c r="D3" s="6">
         <f>SUM(C3,-C5)</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>174.20000000000002</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>44467</v>
+      <c r="A4" s="14">
+        <v>44501</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>13835</v>
+        <v>13920</v>
       </c>
       <c r="D4" s="6">
         <f>SUM(C4,-C6)</f>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>496</v>
+        <f t="shared" ref="F4:F7" si="1">PRODUCT(D4,E4)</f>
+        <v>421.6</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>576.4</v>
+        <v>488.6</v>
       </c>
       <c r="H4" s="11">
-        <v>576.4</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,37 +618,50 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4565</v>
+        <v>4590</v>
       </c>
       <c r="D5" s="6">
         <f>SUM(C5,-C7)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>80.400000000000006</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>13735</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>13835</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUM(C6,-C8)</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>576.4</v>
+      </c>
+      <c r="H6" s="11">
+        <v>576.4</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -649,41 +669,79 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4535</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
+        <v>4565</v>
+      </c>
+      <c r="D7" s="6">
+        <f>SUM(C7,-C9)</f>
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>80.400000000000006</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUM(G2:G7)</f>
-        <v>1065</v>
-      </c>
-      <c r="H8" s="11">
-        <f>SUM(H2:H7)</f>
-        <v>1065</v>
-      </c>
+      <c r="A8" s="9">
+        <v>44435</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>13735</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4535</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(G4:G9)</f>
+        <v>1065</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(H4:H9)</f>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
